--- a/Consumer/PM.xlsx
+++ b/Consumer/PM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9EF6A1-7197-EC42-8704-F60EA7C13F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE21F6B-6DD1-C54D-B00D-7233358149C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -512,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -740,9 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2007,9 +2004,11 @@
     <v>Powered by Refinitiv</v>
     <v>134.15</v>
     <v>87.82</v>
-    <v>0.56030000000000002</v>
-    <v>-6.88</v>
-    <v>-5.2046000000000002E-2</v>
+    <v>0.55500000000000005</v>
+    <v>0.4</v>
+    <v>3.1199999999999999E-3</v>
+    <v>0.31</v>
+    <v>2.4109999999999999E-3</v>
     <v>USD</v>
     <v>Philip Morris International Inc. is an international tobacco company. The Company's product portfolio primarily consists of cigarettes and smoke-free products, which include heat-not-burn, vapor, and oral nicotine products. The Company’s segments include Europe Region; South and Southeast Asia, Commonwealth of Independent States, Middle East and Africa Region (SSEA, CIS &amp; MEA); East Asia, Australia, and PMI Duty Free Region (EA, AU &amp; PMI DF); Americas Region; Swedish Match, and Wellness and Healthcare (W&amp;H), which includes the operating of Vectura Fertin Pharma business. The Company's brands include Marlboro, HEETS, IQOS, IQOS ILUMA, TEREA, and ZYN. The Company’s IQOS smoke-free product brand portfolio includes heated tobacco and nicotine-containing vapor products. Its smoke-free platform (Platform 1) uses a precisely controlled heating device into which a specially designed and proprietary tobacco unit is inserted and heated to generate an aerosol.</v>
     <v>82700</v>
@@ -2017,24 +2016,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>677 Washington Blvd, Ste. 1100, STAMFORD, CT, 06901 US</v>
-    <v>132.97499999999999</v>
+    <v>130.15</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45602.933710856247</v>
+    <v>45611.888434617969</v>
     <v>0</v>
-    <v>125.14</v>
-    <v>194836123230</v>
+    <v>128.34</v>
+    <v>199936000000</v>
     <v>Philip Morris International Inc.</v>
     <v>Philip Morris International Inc.</v>
-    <v>132.97499999999999</v>
-    <v>19.874700000000001</v>
-    <v>132.19</v>
-    <v>125.31</v>
+    <v>128.38999999999999</v>
+    <v>20.3965</v>
+    <v>128.19999999999999</v>
+    <v>128.6</v>
+    <v>128.9</v>
     <v>1554833000</v>
     <v>PM</v>
     <v>Philip Morris International Inc. (XNYS:PM)</v>
-    <v>113</v>
-    <v>4782825</v>
+    <v>9066012</v>
+    <v>5596264</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2066,6 +2066,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2086,6 +2088,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2102,7 +2105,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2113,13 +2116,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2185,13 +2191,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2236,6 +2248,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2243,6 +2258,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2910,7 +2928,7 @@
   <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2944,14 +2962,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>125.31</v>
+        <v>128.6</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17">
         <f ca="1">A5/F10</f>
-        <v>5.1639576790352502</v>
+        <v>5.2991253644314869</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -2979,7 +2997,7 @@
       </c>
       <c r="K3" s="70">
         <f ca="1">E23</f>
-        <v>4.0875377050069217E-2</v>
+        <v>3.9832746478873242E-2</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>33</v>
@@ -2994,14 +3012,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.2046000000000002E-2</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="18">
         <f ca="1">A5/F15</f>
-        <v>19.224087146521953</v>
+        <v>19.727281697089296</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>25</v>
@@ -3042,14 +3060,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>194836123230</v>
+        <v>199936000000</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="19">
         <f ca="1">F18/A5</f>
-        <v>5.8551770641284487E-2</v>
+        <v>5.7058258642765688E-2</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>24</v>
@@ -3091,7 +3109,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.56030000000000002</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>18</v>
@@ -3124,7 +3142,7 @@
       </c>
       <c r="K6" s="13">
         <f ca="1">K5/A3-1</f>
-        <v>-0.32185949753685439</v>
+        <v>-0.33920850417063153</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>13</v>
@@ -3157,10 +3175,10 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3737,19 +3755,19 @@
       </c>
       <c r="B23" s="59">
         <f ca="1">B21/$A$5</f>
-        <v>3.7795865971460285E-2</v>
+        <v>3.6831786171574905E-2</v>
       </c>
       <c r="C23" s="59">
         <f t="shared" ref="C23:E23" ca="1" si="8">C21/$A$5</f>
-        <v>3.8904489959759501E-2</v>
+        <v>3.7912131882202306E-2</v>
       </c>
       <c r="D23" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0095234243488286E-2</v>
+        <v>3.9072503201024331E-2</v>
       </c>
       <c r="E23" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0875377050069217E-2</v>
+        <v>3.9832746478873242E-2</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="59"/>
